--- a/docs/apollo/ESP32_GPIO_Pinout_Apollo.xlsx
+++ b/docs/apollo/ESP32_GPIO_Pinout_Apollo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoseRamonNavarroMarq\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramon\Desktop\Robots\Minerva\firmware\MotorSincronization\docs\apollo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED259D30-E534-451A-AEA3-5C356CC82196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6339C1-6CB7-48EC-BC83-B102F54BA0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{739886B5-7468-4384-843D-A3CE45B9DCA1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{739886B5-7468-4384-843D-A3CE45B9DCA1}"/>
   </bookViews>
   <sheets>
     <sheet name="ESP32_GPIO_Pinout" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
   <si>
     <t>GPIO</t>
   </si>
@@ -118,12 +118,6 @@
     <t>Vin</t>
   </si>
   <si>
-    <t>Q2_DS</t>
-  </si>
-  <si>
-    <t>Q2_US</t>
-  </si>
-  <si>
     <t>Valid</t>
   </si>
   <si>
@@ -151,12 +145,6 @@
     <t>Q1_DIR</t>
   </si>
   <si>
-    <t>Q1_US</t>
-  </si>
-  <si>
-    <t>Q1_DS</t>
-  </si>
-  <si>
     <t>Q1_ENA</t>
   </si>
   <si>
@@ -187,21 +175,9 @@
     <t>Q3_DIR</t>
   </si>
   <si>
-    <t>Q3_US</t>
-  </si>
-  <si>
-    <t>Q3_DS</t>
-  </si>
-  <si>
     <t>Q3_ENA</t>
   </si>
   <si>
-    <t>Q4_US</t>
-  </si>
-  <si>
-    <t>Q4_DS</t>
-  </si>
-  <si>
     <t>~~~~~~~</t>
   </si>
   <si>
@@ -212,6 +188,18 @@
   </si>
   <si>
     <t>|________________|</t>
+  </si>
+  <si>
+    <t>Q2_LS</t>
+  </si>
+  <si>
+    <t>Q1_LS</t>
+  </si>
+  <si>
+    <t>Q4_LS</t>
+  </si>
+  <si>
+    <t>Q3_LS</t>
   </si>
 </sst>
 </file>
@@ -776,48 +764,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -833,7 +821,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1156,12 +1144,12 @@
       <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1175,13 +1163,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1201,7 +1189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1224,7 +1212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1241,7 +1229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1264,7 +1252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1281,7 +1269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1298,7 +1286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1318,7 +1306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1338,7 +1326,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1358,7 +1346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1378,7 +1366,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1398,7 +1386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1418,7 +1406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1438,7 +1426,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1455,7 +1443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1472,7 +1460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1489,7 +1477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1506,7 +1494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1523,7 +1511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1540,7 +1528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1557,7 +1545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1574,7 +1562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1591,7 +1579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1608,7 +1596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25</v>
       </c>
@@ -1625,7 +1613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26</v>
       </c>
@@ -1642,7 +1630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>27</v>
       </c>
@@ -1659,7 +1647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>32</v>
       </c>
@@ -1676,7 +1664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>33</v>
       </c>
@@ -1693,7 +1681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>34</v>
       </c>
@@ -1713,7 +1701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>35</v>
       </c>
@@ -1733,7 +1721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>36</v>
       </c>
@@ -1753,7 +1741,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>39</v>
       </c>
@@ -1793,13 +1781,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1807,7 +1795,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1815,7 +1803,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1823,7 +1811,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1831,7 +1819,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1839,7 +1827,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1847,7 +1835,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1855,7 +1843,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1863,7 +1851,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1871,7 +1859,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1879,7 +1867,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1887,7 +1875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1895,7 +1883,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -1903,7 +1891,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1911,7 +1899,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -1919,7 +1907,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -1927,7 +1915,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
@@ -1935,7 +1923,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
@@ -1943,7 +1931,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4</v>
       </c>
@@ -1951,7 +1939,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4</v>
       </c>
@@ -1959,7 +1947,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -1974,15 +1962,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E221B49-05B0-4914-80B6-7DD149512C12}">
-  <dimension ref="A2:L19"/>
+  <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -1991,15 +1983,15 @@
       </c>
       <c r="F2" s="11"/>
     </row>
-    <row r="3" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="8">
@@ -2010,12 +2002,12 @@
         <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" s="4" t="b">
         <f>VLOOKUP(D4,ESP32_GPIO_Pinout!A:E,5,FALSE)</f>
@@ -2025,7 +2017,7 @@
         <v>36</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="8">
@@ -2036,12 +2028,12 @@
         <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="4" t="b">
         <f>VLOOKUP(D5,ESP32_GPIO_Pinout!A:E,5,FALSE)</f>
@@ -2051,7 +2043,7 @@
         <v>39</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="8">
@@ -2062,10 +2054,10 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="4" t="b">
         <f>VLOOKUP(D6,ESP32_GPIO_Pinout!A:E,5,FALSE)</f>
         <v>0</v>
@@ -2074,7 +2066,7 @@
         <v>34</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="8">
@@ -2085,10 +2077,10 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="b">
         <f>VLOOKUP(D7,ESP32_GPIO_Pinout!A:E,5,FALSE)</f>
         <v>0</v>
@@ -2097,7 +2089,7 @@
         <v>35</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="8">
@@ -2108,12 +2100,12 @@
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="C8" s="5" t="b">
         <f>VLOOKUP(D8,ESP32_GPIO_Pinout!A:E,5,FALSE)</f>
@@ -2132,12 +2124,12 @@
         <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="C9" s="5" t="b">
         <f>VLOOKUP(D9,ESP32_GPIO_Pinout!A:E,5,FALSE)</f>
@@ -2155,13 +2147,13 @@
         <f>VLOOKUP(G9,ESP32_GPIO_Pinout!A:E,5,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
-        <v>49</v>
+      <c r="I9" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="C10" s="5" t="b">
         <f>VLOOKUP(D10,ESP32_GPIO_Pinout!A:E,5,FALSE)</f>
@@ -2180,12 +2172,12 @@
         <v>1</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
-        <v>50</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="C11" s="5" t="b">
         <f>VLOOKUP(D11,ESP32_GPIO_Pinout!A:E,5,FALSE)</f>
@@ -2204,15 +2196,15 @@
         <v>1</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C12" s="5" t="b">
         <f>VLOOKUP(D12,ESP32_GPIO_Pinout!A:E,5,FALSE)</f>
@@ -2231,16 +2223,13 @@
         <v>1</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="7" t="s">
-        <v>52</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" s="5" t="b">
         <f>VLOOKUP(D13,ESP32_GPIO_Pinout!A:E,5,FALSE)</f>
         <v>1</v>
@@ -2257,11 +2246,11 @@
         <f>VLOOKUP(G13,ESP32_GPIO_Pinout!A:E,5,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I13" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" s="4" t="b">
         <f>VLOOKUP(D14,ESP32_GPIO_Pinout!A:E,5,FALSE)</f>
         <v>0</v>
@@ -2278,14 +2267,11 @@
         <f>VLOOKUP(G14,ESP32_GPIO_Pinout!A:E,5,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="I14" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C15" s="5" t="b">
         <f>VLOOKUP(D15,ESP32_GPIO_Pinout!A:E,5,FALSE)</f>
         <v>1</v>
@@ -2302,8 +2288,11 @@
         <f>VLOOKUP(G15,ESP32_GPIO_Pinout!A:E,5,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I15" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="9" t="s">
         <v>22</v>
       </c>
@@ -2313,29 +2302,16 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D17" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="L18" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="L19" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/docs/apollo/ESP32_GPIO_Pinout_Apollo.xlsx
+++ b/docs/apollo/ESP32_GPIO_Pinout_Apollo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramon\Desktop\Robots\Minerva\firmware\MotorSincronization\docs\apollo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoseRamonNavarroMarq\Desktop\INMCD\minerva\MotorSincronization\docs\apollo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6339C1-6CB7-48EC-BC83-B102F54BA0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0E3032-3534-454B-8123-1AD5C6668501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{739886B5-7468-4384-843D-A3CE45B9DCA1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{739886B5-7468-4384-843D-A3CE45B9DCA1}"/>
   </bookViews>
   <sheets>
     <sheet name="ESP32_GPIO_Pinout" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
   <si>
     <t>GPIO</t>
   </si>
@@ -190,16 +190,22 @@
     <t>|________________|</t>
   </si>
   <si>
-    <t>Q2_LS</t>
-  </si>
-  <si>
-    <t>Q1_LS</t>
-  </si>
-  <si>
-    <t>Q4_LS</t>
-  </si>
-  <si>
-    <t>Q3_LS</t>
+    <t>Actuador-&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Q1_LSW</t>
+  </si>
+  <si>
+    <t>Q2_LSW</t>
+  </si>
+  <si>
+    <t>LED_BOARD</t>
+  </si>
+  <si>
+    <t>Q3_LSW</t>
+  </si>
+  <si>
+    <t>Q4_LSW</t>
   </si>
 </sst>
 </file>
@@ -355,7 +361,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -574,6 +580,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,7 +750,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -762,50 +774,51 @@
     <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -821,7 +834,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1144,12 +1157,12 @@
       <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1169,7 +1182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1189,7 +1202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1212,7 +1225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1229,7 +1242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1252,7 +1265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1269,7 +1282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1286,7 +1299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1306,7 +1319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1326,7 +1339,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1346,7 +1359,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1366,7 +1379,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1386,7 +1399,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1406,7 +1419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1426,7 +1439,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1443,7 +1456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1460,7 +1473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1477,7 +1490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1494,7 +1507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1511,7 +1524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1528,7 +1541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1545,7 +1558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1562,7 +1575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1579,7 +1592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1596,7 +1609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>25</v>
       </c>
@@ -1613,7 +1626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>26</v>
       </c>
@@ -1630,7 +1643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>27</v>
       </c>
@@ -1647,7 +1660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>32</v>
       </c>
@@ -1664,7 +1677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>33</v>
       </c>
@@ -1681,7 +1694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>34</v>
       </c>
@@ -1701,7 +1714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>35</v>
       </c>
@@ -1721,7 +1734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>36</v>
       </c>
@@ -1741,7 +1754,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>39</v>
       </c>
@@ -1781,13 +1794,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1795,7 +1808,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1803,7 +1816,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1811,7 +1824,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1819,7 +1832,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1827,7 +1840,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1835,7 +1848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1843,7 +1856,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1851,7 +1864,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1859,7 +1872,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1867,7 +1880,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1875,7 +1888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1883,7 +1896,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
@@ -1891,7 +1904,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1899,7 +1912,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3</v>
       </c>
@@ -1907,7 +1920,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -1915,7 +1928,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4</v>
       </c>
@@ -1923,7 +1936,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>4</v>
       </c>
@@ -1931,7 +1944,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>4</v>
       </c>
@@ -1939,7 +1952,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>4</v>
       </c>
@@ -1947,7 +1960,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>4</v>
       </c>
@@ -1965,16 +1978,18 @@
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -1983,7 +1998,7 @@
       </c>
       <c r="F2" s="11"/>
     </row>
-    <row r="3" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
@@ -2001,11 +2016,11 @@
         <f>VLOOKUP(G3,ESP32_GPIO_Pinout!A:E,5,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I3" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>28</v>
       </c>
@@ -2028,10 +2043,10 @@
         <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>29</v>
       </c>
@@ -2049,15 +2064,14 @@
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="5" t="b">
-        <f>VLOOKUP(G5,ESP32_GPIO_Pinout!A:E,5,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="H5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C6" s="4" t="b">
         <f>VLOOKUP(D6,ESP32_GPIO_Pinout!A:E,5,FALSE)</f>
         <v>0</v>
@@ -2072,15 +2086,14 @@
       <c r="G6" s="8">
         <v>3</v>
       </c>
-      <c r="H6" s="5" t="b">
-        <f>VLOOKUP(G6,ESP32_GPIO_Pinout!A:E,5,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="H6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="4" t="b">
         <f>VLOOKUP(D7,ESP32_GPIO_Pinout!A:E,5,FALSE)</f>
         <v>0</v>
@@ -2100,10 +2113,10 @@
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>37</v>
       </c>
@@ -2124,10 +2137,10 @@
         <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>36</v>
       </c>
@@ -2147,11 +2160,11 @@
         <f>VLOOKUP(G9,ESP32_GPIO_Pinout!A:E,5,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
         <v>38</v>
       </c>
@@ -2171,13 +2184,13 @@
         <f>VLOOKUP(G10,ESP32_GPIO_Pinout!A:E,5,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="C11" s="5" t="b">
         <f>VLOOKUP(D11,ESP32_GPIO_Pinout!A:E,5,FALSE)</f>
@@ -2195,16 +2208,16 @@
         <f>VLOOKUP(G11,ESP32_GPIO_Pinout!A:E,5,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>33</v>
+      <c r="I11" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="J11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
-        <v>53</v>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C12" s="5" t="b">
         <f>VLOOKUP(D12,ESP32_GPIO_Pinout!A:E,5,FALSE)</f>
@@ -2222,14 +2235,17 @@
         <f>VLOOKUP(G12,ESP32_GPIO_Pinout!A:E,5,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>35</v>
+      <c r="I12" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="J12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="C13" s="5" t="b">
         <f>VLOOKUP(D13,ESP32_GPIO_Pinout!A:E,5,FALSE)</f>
         <v>1</v>
@@ -2247,10 +2263,10 @@
         <v>1</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C14" s="4" t="b">
         <f>VLOOKUP(D14,ESP32_GPIO_Pinout!A:E,5,FALSE)</f>
         <v>0</v>
@@ -2263,15 +2279,17 @@
       <c r="G14" s="8">
         <v>2</v>
       </c>
-      <c r="H14" s="5" t="b">
-        <f>VLOOKUP(G14,ESP32_GPIO_Pinout!A:E,5,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="15" t="s">
+        <v>50</v>
+      </c>
       <c r="C15" s="5" t="b">
         <f>VLOOKUP(D15,ESP32_GPIO_Pinout!A:E,5,FALSE)</f>
         <v>1</v>
@@ -2288,11 +2306,11 @@
         <f>VLOOKUP(G15,ESP32_GPIO_Pinout!A:E,5,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I15" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D16" s="9" t="s">
         <v>22</v>
       </c>
@@ -2302,7 +2320,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D17" s="10" t="s">
         <v>25</v>
       </c>

--- a/docs/apollo/ESP32_GPIO_Pinout_Apollo.xlsx
+++ b/docs/apollo/ESP32_GPIO_Pinout_Apollo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoseRamonNavarroMarq\Desktop\INMCD\minerva\MotorSincronization\docs\apollo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0E3032-3534-454B-8123-1AD5C6668501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF489FD-E625-4934-BCB6-40EABA38F973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{739886B5-7468-4384-843D-A3CE45B9DCA1}"/>
   </bookViews>
@@ -762,6 +762,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -774,7 +775,6 @@
     <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1978,7 +1978,7 @@
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1993,10 +1993,10 @@
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="11"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
@@ -2005,10 +2005,10 @@
       <c r="D3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="13"/>
+      <c r="F3" s="14"/>
       <c r="G3" s="8">
         <v>23</v>
       </c>
@@ -2031,10 +2031,10 @@
       <c r="D4" s="8">
         <v>36</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="14"/>
+      <c r="F4" s="15"/>
       <c r="G4" s="8">
         <v>22</v>
       </c>
@@ -2057,17 +2057,17 @@
       <c r="D5" s="8">
         <v>39</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="14"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="8">
         <v>1</v>
       </c>
       <c r="H5" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="11" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2079,17 +2079,17 @@
       <c r="D6" s="8">
         <v>34</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="14"/>
+      <c r="F6" s="15"/>
       <c r="G6" s="8">
         <v>3</v>
       </c>
       <c r="H6" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="11" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2101,10 +2101,10 @@
       <c r="D7" s="8">
         <v>35</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="15"/>
       <c r="G7" s="8">
         <v>21</v>
       </c>
@@ -2112,13 +2112,13 @@
         <f>VLOOKUP(G7,ESP32_GPIO_Pinout!A:E,5,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="C8" s="5" t="b">
         <f>VLOOKUP(D8,ESP32_GPIO_Pinout!A:E,5,FALSE)</f>
@@ -2136,13 +2136,13 @@
         <f>VLOOKUP(G8,ESP32_GPIO_Pinout!A:E,5,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="C9" s="5" t="b">
         <f>VLOOKUP(D9,ESP32_GPIO_Pinout!A:E,5,FALSE)</f>
@@ -2160,13 +2160,13 @@
         <f>VLOOKUP(G9,ESP32_GPIO_Pinout!A:E,5,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="C10" s="5" t="b">
         <f>VLOOKUP(D10,ESP32_GPIO_Pinout!A:E,5,FALSE)</f>
@@ -2184,8 +2184,8 @@
         <f>VLOOKUP(G10,ESP32_GPIO_Pinout!A:E,5,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>44</v>
+      <c r="I10" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -2208,8 +2208,8 @@
         <f>VLOOKUP(G11,ESP32_GPIO_Pinout!A:E,5,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>43</v>
+      <c r="I11" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="J11" t="s">
         <v>39</v>
@@ -2235,8 +2235,8 @@
         <f>VLOOKUP(G12,ESP32_GPIO_Pinout!A:E,5,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>45</v>
+      <c r="I12" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="J12" t="s">
         <v>41</v>
@@ -2282,12 +2282,12 @@
       <c r="H14" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C15" s="5" t="b">
@@ -2324,10 +2324,10 @@
       <c r="D17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="14"/>
+      <c r="F17" s="15"/>
       <c r="G17" s="10" t="s">
         <v>23</v>
       </c>
